--- a/Input/Daily_Template_Scene1.xlsx
+++ b/Input/Daily_Template_Scene1.xlsx
@@ -492,7 +492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C699"/>
+  <dimension ref="A1:C701"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10986,6 +10986,32 @@
       <c r="C699" t="n">
         <v>0</v>
       </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>AJIT</t>
+        </is>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="C700" t="inlineStr"/>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>ATUL</t>
+        </is>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="C701" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10998,7 +11024,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C699"/>
+  <dimension ref="A1:C701"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21492,6 +21518,32 @@
       <c r="C699" t="n">
         <v>0</v>
       </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>AJIT</t>
+        </is>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="C700" t="inlineStr"/>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>ATUL</t>
+        </is>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="C701" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -21504,7 +21556,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C699"/>
+  <dimension ref="A1:C701"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31998,6 +32050,32 @@
       <c r="C699" t="n">
         <v>0</v>
       </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>AJIT</t>
+        </is>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="C700" t="inlineStr"/>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>ATUL</t>
+        </is>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="C701" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -32010,7 +32088,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C699"/>
+  <dimension ref="A1:C701"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42504,6 +42582,32 @@
       <c r="C699" t="n">
         <v>0</v>
       </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>AJIT</t>
+        </is>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="C700" t="inlineStr"/>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>ATUL</t>
+        </is>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="C701" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
